--- a/WIP/.Repartition.xlsx
+++ b/WIP/.Repartition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\Desktop\MtG\Proxys\HoF_EDH\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E3C553-E13B-465F-B446-63EB2B5C2C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3C72A7-010F-44C0-BA5F-CBC00B853945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="77">
   <si>
     <t>Type</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Iga, divinité tourmentée</t>
+  </si>
+  <si>
+    <t>Fléau de la corruption</t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20</c:v>
@@ -691,7 +694,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,16 +933,16 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,7 +1227,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
@@ -1239,7 +1242,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1555,7 +1558,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
@@ -4352,7 +4355,7 @@
   <dimension ref="A1:U201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4791,7 +4794,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -5067,14 +5070,14 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s">
         <v>29</v>
       </c>
       <c r="U25">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -5096,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="K26" t="s">
         <v>29</v>
@@ -5106,7 +5109,7 @@
       </c>
       <c r="U26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -5169,7 +5172,7 @@
       </c>
       <c r="U28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -5326,7 +5329,7 @@
       </c>
       <c r="U33">
         <f>COUNTIF(I:I,T33)</f>
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -5484,7 +5487,7 @@
       </c>
       <c r="U38">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
@@ -5772,15 +5775,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
+      <c r="H49">
+        <v>3</v>
+      </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="J49" t="s">
+        <v>29</v>
       </c>
       <c r="T49" t="s">
         <v>8</v>
@@ -5790,7 +5807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="4"/>
@@ -5805,10 +5822,10 @@
       </c>
       <c r="U50">
         <f t="shared" ref="U50:U55" si="3">COUNTIF(B:B,T50)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
@@ -5826,7 +5843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
@@ -5844,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="4"/>
@@ -5862,7 +5879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
@@ -5880,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="4"/>
@@ -5898,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
@@ -5909,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="4"/>
@@ -5920,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
@@ -5931,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
@@ -5942,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
@@ -5953,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
@@ -5964,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
@@ -5975,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
@@ -5986,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
@@ -6415,7 +6432,7 @@
       </c>
       <c r="E102" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F102" s="5">
         <f t="shared" si="5"/>
@@ -6427,11 +6444,11 @@
       </c>
       <c r="H102">
         <f t="shared" si="5"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I102">
         <f>SUM(I2:I101)/(100-U52)</f>
-        <v>1.2525252525252526</v>
+        <v>1.303030303030303</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.3">
@@ -6854,7 +6871,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="6"/>
       <c r="I162">
-        <f t="shared" ref="I106:I169" si="6">SUM(C162:H162)</f>
+        <f t="shared" ref="I162:I169" si="6">SUM(C162:H162)</f>
         <v>0</v>
       </c>
     </row>

--- a/WIP/.Repartition.xlsx
+++ b/WIP/.Repartition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\Desktop\MtG\Proxys\HoF_EDH\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3C72A7-010F-44C0-BA5F-CBC00B853945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EF6453-AD23-40EF-9CEA-275A8BED9153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="78">
   <si>
     <t>Type</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Fléau de la corruption</t>
+  </si>
+  <si>
+    <t>Hansel le parieur</t>
   </si>
 </sst>
 </file>
@@ -688,13 +691,13 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,7 +915,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -933,7 +936,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7</c:v>
@@ -1227,7 +1230,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
@@ -1236,7 +1239,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -1555,7 +1558,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -4354,8 +4357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4855,7 +4858,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -5077,7 +5080,7 @@
       </c>
       <c r="U25">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -5329,7 +5332,7 @@
       </c>
       <c r="U33">
         <f>COUNTIF(I:I,T33)</f>
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -5424,7 +5427,7 @@
       </c>
       <c r="U36">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
@@ -5804,18 +5807,35 @@
       </c>
       <c r="U49">
         <f>COUNTIF(B:B,T49)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="5"/>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
       <c r="G50" s="6"/>
+      <c r="H50">
+        <v>2</v>
+      </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" t="s">
+        <v>29</v>
       </c>
       <c r="T50" t="s">
         <v>14</v>
@@ -6436,7 +6456,7 @@
       </c>
       <c r="F102" s="5">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="5"/>
@@ -6444,11 +6464,11 @@
       </c>
       <c r="H102">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I102">
         <f>SUM(I2:I101)/(100-U52)</f>
-        <v>1.303030303030303</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.3">

--- a/WIP/.Repartition.xlsx
+++ b/WIP/.Repartition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\Desktop\MtG\Proxys\HoF_EDH\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EF6453-AD23-40EF-9CEA-275A8BED9153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DCC732-792D-45BA-B945-DA163D9F989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="79">
   <si>
     <t>Type</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Hansel le parieur</t>
+  </si>
+  <si>
+    <t>Pillards nordiques</t>
   </si>
 </sst>
 </file>
@@ -682,13 +685,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>21</c:v>
@@ -697,7 +700,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,7 +918,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1230,7 +1233,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>83</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
@@ -1242,7 +1245,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -1558,7 +1561,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -4357,8 +4360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4858,7 +4861,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -5332,7 +5335,7 @@
       </c>
       <c r="U33">
         <f>COUNTIF(I:I,T33)</f>
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -5459,7 +5462,7 @@
       </c>
       <c r="U37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
@@ -5807,7 +5810,7 @@
       </c>
       <c r="U49">
         <f>COUNTIF(B:B,T49)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
@@ -5846,14 +5849,30 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C51" s="2"/>
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
+      <c r="H51">
+        <v>2</v>
+      </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>10</v>
       </c>
       <c r="T51" t="s">
         <v>13</v>
@@ -6444,7 +6463,7 @@
     <row r="102" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C102" s="2">
         <f t="shared" ref="C102:H102" si="5">SUM(C2:C101)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" s="3">
         <f t="shared" si="5"/>
@@ -6452,7 +6471,7 @@
       </c>
       <c r="E102" s="4">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F102" s="5">
         <f t="shared" si="5"/>
@@ -6464,11 +6483,11 @@
       </c>
       <c r="H102">
         <f t="shared" si="5"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I102">
         <f>SUM(I2:I101)/(100-U52)</f>
-        <v>1.3333333333333333</v>
+        <v>1.3737373737373737</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.3">

--- a/WIP/.Repartition.xlsx
+++ b/WIP/.Repartition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\Desktop\MtG\Proxys\HoF_EDH\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DCC732-792D-45BA-B945-DA163D9F989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89C577-5529-4B4D-A04D-A6D6FE42602D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="82">
   <si>
     <t>Type</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>Pillards nordiques</t>
+  </si>
+  <si>
+    <t>Spectre de la prison</t>
+  </si>
+  <si>
+    <t>Théophilius, âme damnée</t>
+  </si>
+  <si>
+    <t>Marchand Prospère</t>
   </si>
 </sst>
 </file>
@@ -685,13 +694,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>21</c:v>
@@ -700,7 +709,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,7 +930,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7</c:v>
@@ -939,7 +948,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7</c:v>
@@ -1233,22 +1242,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>82</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1561,7 +1570,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -4361,7 +4370,7 @@
   <dimension ref="A1:U201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4885,7 +4894,7 @@
       </c>
       <c r="U19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -5083,7 +5092,7 @@
       </c>
       <c r="U25">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -5335,7 +5344,7 @@
       </c>
       <c r="U33">
         <f>COUNTIF(I:I,T33)</f>
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -5399,7 +5408,7 @@
       </c>
       <c r="U35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -5430,7 +5439,7 @@
       </c>
       <c r="U36">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
@@ -5493,7 +5502,7 @@
       </c>
       <c r="U38">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
@@ -5810,7 +5819,7 @@
       </c>
       <c r="U49">
         <f>COUNTIF(B:B,T49)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
@@ -5883,14 +5892,31 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="4">
+        <v>2</v>
+      </c>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
+      <c r="H52">
+        <v>3</v>
+      </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="J52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" t="s">
+        <v>29</v>
       </c>
       <c r="T52" t="s">
         <v>17</v>
@@ -5901,14 +5927,28 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="4"/>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
+      <c r="H53">
+        <v>2</v>
+      </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>29</v>
       </c>
       <c r="T53" t="s">
         <v>18</v>
@@ -5919,14 +5959,28 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C54" s="2"/>
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
+      <c r="H54">
+        <v>1</v>
+      </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J54" t="s">
+        <v>29</v>
       </c>
       <c r="T54" t="s">
         <v>19</v>
@@ -6463,7 +6517,7 @@
     <row r="102" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C102" s="2">
         <f t="shared" ref="C102:H102" si="5">SUM(C2:C101)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D102" s="3">
         <f t="shared" si="5"/>
@@ -6471,7 +6525,7 @@
       </c>
       <c r="E102" s="4">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F102" s="5">
         <f t="shared" si="5"/>
@@ -6483,11 +6537,11 @@
       </c>
       <c r="H102">
         <f t="shared" si="5"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I102">
         <f>SUM(I2:I101)/(100-U52)</f>
-        <v>1.3737373737373737</v>
+        <v>1.4747474747474747</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.3">

--- a/WIP/.Repartition.xlsx
+++ b/WIP/.Repartition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\Desktop\MtG\Proxys\HoF_EDH\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89C577-5529-4B4D-A04D-A6D6FE42602D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7960F3E6-B3F1-4750-A113-E61EEE688EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="91">
   <si>
     <t>Type</t>
   </si>
@@ -271,6 +271,33 @@
   </si>
   <si>
     <t>Marchand Prospère</t>
+  </si>
+  <si>
+    <t>Maître de son destin</t>
+  </si>
+  <si>
+    <t>Espoir éternel</t>
+  </si>
+  <si>
+    <t>Triche</t>
+  </si>
+  <si>
+    <t>Capuche de parieur</t>
+  </si>
+  <si>
+    <t>Joyau du parieur</t>
+  </si>
+  <si>
+    <t>Anneau de Kallas</t>
+  </si>
+  <si>
+    <t>Anneau de concentration</t>
+  </si>
+  <si>
+    <t>Anneau de sacrifice</t>
+  </si>
+  <si>
+    <t>Anneau de vérité</t>
   </si>
 </sst>
 </file>
@@ -694,22 +721,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,9 +902,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$T$17:$T$28</c:f>
+              <c:f>Feuil1!$T$17:$T$29</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Pioche</c:v>
                 </c:pt>
@@ -914,20 +941,23 @@
                 <c:pt idx="11">
                   <c:v>Pump</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>Triche</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$U$17:$U$28</c:f>
+              <c:f>Feuil1!$U$17:$U$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -958,6 +988,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,19 +1275,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
@@ -1582,10 +1615,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4369,8 +4402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4451,14 +4484,30 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
       <c r="G3" s="6"/>
+      <c r="H3">
+        <v>1</v>
+      </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="0">SUM(C3:H3)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -4870,7 +4919,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -5219,9 +5268,12 @@
       <c r="K29" t="s">
         <v>29</v>
       </c>
+      <c r="T29" t="s">
+        <v>84</v>
+      </c>
       <c r="U29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -5344,7 +5396,7 @@
       </c>
       <c r="U33">
         <f>COUNTIF(I:I,T33)</f>
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -5408,7 +5460,7 @@
       </c>
       <c r="U35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -5439,7 +5491,7 @@
       </c>
       <c r="U36">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
@@ -5471,7 +5523,7 @@
       </c>
       <c r="U37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
@@ -5948,14 +6000,14 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="T53" t="s">
         <v>18</v>
       </c>
       <c r="U53">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
@@ -5987,18 +6039,34 @@
       </c>
       <c r="U54">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
+      <c r="H55">
+        <v>2</v>
+      </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>84</v>
       </c>
       <c r="T55" t="s">
         <v>11</v>
@@ -6009,69 +6077,147 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
+      <c r="H56">
+        <v>2</v>
+      </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+      <c r="K56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="4"/>
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
+      <c r="H57">
+        <v>2</v>
+      </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+      <c r="K57" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
+      <c r="H58">
+        <v>2</v>
+      </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
+      <c r="H59">
+        <v>2</v>
+      </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J59" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
+      <c r="H60">
+        <v>2</v>
+      </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J60" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
+      <c r="H61">
+        <v>2</v>
+      </c>
       <c r="I61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J61" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
@@ -6517,11 +6663,11 @@
     <row r="102" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C102" s="2">
         <f t="shared" ref="C102:H102" si="5">SUM(C2:C101)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D102" s="3">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E102" s="4">
         <f t="shared" si="5"/>
@@ -6529,7 +6675,7 @@
       </c>
       <c r="F102" s="5">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="5"/>
@@ -6537,11 +6683,11 @@
       </c>
       <c r="H102">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I102">
         <f>SUM(I2:I101)/(100-U52)</f>
-        <v>1.4747474747474747</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.3">

--- a/WIP/.Repartition.xlsx
+++ b/WIP/.Repartition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\Desktop\MtG\Proxys\HoF_EDH\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7960F3E6-B3F1-4750-A113-E61EEE688EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033D2328-38AD-4FA5-9851-FFFF763085AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="104">
   <si>
     <t>Type</t>
   </si>
@@ -298,6 +298,45 @@
   </si>
   <si>
     <t>Anneau de vérité</t>
+  </si>
+  <si>
+    <t>Appel de la victoire</t>
+  </si>
+  <si>
+    <t>Gantelet d'occultiste</t>
+  </si>
+  <si>
+    <t>Carreau foudroyant</t>
+  </si>
+  <si>
+    <t>Armure d'écailles du roi mort</t>
+  </si>
+  <si>
+    <t>Grobben, chef de la Fosse</t>
+  </si>
+  <si>
+    <t>La Vieille Dame</t>
+  </si>
+  <si>
+    <t>Ruines de la Tour</t>
+  </si>
+  <si>
+    <t>Frontière de la province</t>
+  </si>
+  <si>
+    <t>Campement sauvage</t>
+  </si>
+  <si>
+    <t>Campement sous les étoiles</t>
+  </si>
+  <si>
+    <t>Campement souterrain</t>
+  </si>
+  <si>
+    <t>Campement urbain</t>
+  </si>
+  <si>
+    <t>Croisée des chemins</t>
   </si>
 </sst>
 </file>
@@ -721,7 +760,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
@@ -730,13 +769,13 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,13 +996,13 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12</c:v>
@@ -975,10 +1014,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7</c:v>
@@ -987,7 +1026,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
@@ -1275,13 +1314,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>71</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20</c:v>
@@ -1293,7 +1332,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -1603,7 +1642,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -1612,13 +1651,13 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4402,8 +4441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4919,7 +4958,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -4943,7 +4982,7 @@
       </c>
       <c r="U19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -4975,7 +5014,7 @@
       </c>
       <c r="U20">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -5109,7 +5148,7 @@
       </c>
       <c r="U24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -5141,7 +5180,7 @@
       </c>
       <c r="U25">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -5236,7 +5275,7 @@
       </c>
       <c r="U28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -5396,7 +5435,7 @@
       </c>
       <c r="U33">
         <f>COUNTIF(I:I,T33)</f>
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -5428,7 +5467,7 @@
       </c>
       <c r="U34">
         <f t="shared" ref="U34:U42" si="2">COUNTIF(I:I,T34)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -5460,7 +5499,7 @@
       </c>
       <c r="U35">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -5586,7 +5625,7 @@
       </c>
       <c r="U39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
@@ -5857,11 +5896,11 @@
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
       <c r="H49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J49" t="s">
         <v>29</v>
@@ -5871,7 +5910,7 @@
       </c>
       <c r="U49">
         <f>COUNTIF(B:B,T49)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
@@ -5975,7 +6014,7 @@
       </c>
       <c r="U52">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
@@ -6039,7 +6078,7 @@
       </c>
       <c r="U54">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
@@ -6221,107 +6260,238 @@
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
       <c r="F62" s="5"/>
       <c r="G62" s="6"/>
+      <c r="H62">
+        <v>1</v>
+      </c>
       <c r="I62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
+      <c r="H63">
+        <v>2</v>
+      </c>
       <c r="I63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
+      <c r="H64">
+        <v>1</v>
+      </c>
       <c r="I64">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
+      <c r="H65">
+        <v>2</v>
+      </c>
       <c r="I65">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="5"/>
+      <c r="F66" s="5">
+        <v>2</v>
+      </c>
       <c r="G66" s="6"/>
+      <c r="H66">
+        <v>3</v>
+      </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C67" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
+      <c r="H67">
+        <v>1</v>
+      </c>
       <c r="I67">
         <f t="shared" ref="I67:I101" si="4">SUM(C67:H67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C68" s="2"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="J67" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
       <c r="G68" s="6"/>
       <c r="I68">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="6"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0</v>
+      </c>
       <c r="I69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="5"/>
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
       <c r="G70" s="6"/>
       <c r="I70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="3"/>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
       <c r="E71" s="4"/>
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
@@ -6329,20 +6499,48 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
       <c r="F72" s="5"/>
       <c r="G72" s="6"/>
       <c r="I72">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C73" s="2"/>
+      <c r="J72" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="4"/>
       <c r="F73" s="5"/>
@@ -6351,19 +6549,45 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C74" s="2"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="5"/>
+      <c r="J73" t="s">
+        <v>29</v>
+      </c>
+      <c r="K73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0</v>
+      </c>
       <c r="G74" s="6"/>
       <c r="I74">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="4"/>
@@ -6374,7 +6598,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="4"/>
@@ -6385,7 +6612,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
@@ -6396,7 +6626,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="4"/>
@@ -6407,7 +6640,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
@@ -6418,7 +6654,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="4"/>
@@ -6429,7 +6668,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="4"/>
@@ -6440,7 +6682,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="4"/>
@@ -6451,7 +6696,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="4"/>
@@ -6462,7 +6710,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="4"/>
@@ -6473,7 +6724,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="4"/>
@@ -6484,7 +6738,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="4"/>
@@ -6495,7 +6752,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="4"/>
@@ -6506,7 +6766,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
       <c r="E88" s="4"/>
@@ -6517,7 +6780,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="4"/>
@@ -6528,7 +6794,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="4"/>
@@ -6539,7 +6808,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
       <c r="E91" s="4"/>
@@ -6550,7 +6822,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
       <c r="E92" s="4"/>
@@ -6561,7 +6836,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="4"/>
@@ -6572,7 +6850,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
       <c r="E94" s="4"/>
@@ -6583,7 +6864,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="E95" s="4"/>
@@ -6594,7 +6878,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="E96" s="4"/>
@@ -6605,7 +6892,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>17</v>
+      </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
       <c r="E97" s="4"/>
@@ -6616,7 +6906,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="4"/>
@@ -6627,7 +6920,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
       <c r="E99" s="4"/>
@@ -6638,7 +6934,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="4"/>
@@ -6649,7 +6948,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="4"/>
@@ -6660,10 +6962,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C102" s="2">
         <f t="shared" ref="C102:H102" si="5">SUM(C2:C101)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D102" s="3">
         <f t="shared" si="5"/>
@@ -6675,7 +6977,7 @@
       </c>
       <c r="F102" s="5">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="5"/>
@@ -6683,77 +6985,77 @@
       </c>
       <c r="H102">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I102">
         <f>SUM(I2:I101)/(100-U52)</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.3">
+        <v>2.7538461538461538</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="4"/>
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="4"/>
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="4"/>
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="4"/>
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="4"/>
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="4"/>
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="4"/>
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="4"/>
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="4"/>
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="4"/>

--- a/WIP/.Repartition.xlsx
+++ b/WIP/.Repartition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\Desktop\MtG\Proxys\HoF_EDH\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033D2328-38AD-4FA5-9851-FFFF763085AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8CEE38-51FF-48AD-B37C-84E3551519A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="108">
   <si>
     <t>Type</t>
   </si>
@@ -337,6 +337,18 @@
   </si>
   <si>
     <t>Croisée des chemins</t>
+  </si>
+  <si>
+    <t>Champ des fées</t>
+  </si>
+  <si>
+    <t>Portal magique</t>
+  </si>
+  <si>
+    <t>Forteresse impériale</t>
+  </si>
+  <si>
+    <t>Egouts de la ville</t>
   </si>
 </sst>
 </file>
@@ -4441,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6585,11 +6597,18 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
       <c r="B75" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="3"/>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
       <c r="E75" s="4"/>
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
@@ -6599,13 +6618,20 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
       <c r="B76" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="D76" s="3"/>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
       <c r="E76" s="4"/>
-      <c r="F76" s="5"/>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
       <c r="G76" s="6"/>
       <c r="I76">
         <f t="shared" si="4"/>
@@ -6613,13 +6639,20 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
       <c r="B77" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="5"/>
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
       <c r="G77" s="6"/>
       <c r="I77">
         <f t="shared" si="4"/>
@@ -6627,12 +6660,19 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>107</v>
+      </c>
       <c r="B78" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="4"/>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
       <c r="I78">

--- a/WIP/.Repartition.xlsx
+++ b/WIP/.Repartition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="127">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -368,6 +368,39 @@
   </si>
   <si>
     <t xml:space="preserve">Gobelinville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etendues gelées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivière tumultueuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camp nordique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maelstrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontière des terres désolées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Fosse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labyrinthe impossible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Île</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marais</t>
   </si>
 </sst>
 </file>
@@ -377,7 +410,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -416,6 +449,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF404040"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -606,7 +645,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -805,7 +844,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                       <a:solidFill>
                         <a:srgbClr val="404040"/>
                       </a:solidFill>
@@ -990,7 +1029,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1174,11 +1213,11 @@
         </c:ser>
         <c:gapWidth val="182"/>
         <c:overlap val="0"/>
-        <c:axId val="76918283"/>
-        <c:axId val="75475834"/>
+        <c:axId val="13813023"/>
+        <c:axId val="48217006"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76918283"/>
+        <c:axId val="13813023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1249,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75475834"/>
+        <c:crossAx val="48217006"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75475834"/>
+        <c:axId val="48217006"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1296,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76918283"/>
+        <c:crossAx val="13813023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1285,7 +1324,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1451,11 +1490,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="65328007"/>
-        <c:axId val="32443333"/>
+        <c:axId val="15922593"/>
+        <c:axId val="45973033"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65328007"/>
+        <c:axId val="15922593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1526,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32443333"/>
+        <c:crossAx val="45973033"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1495,7 +1534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32443333"/>
+        <c:axId val="45973033"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1573,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65328007"/>
+        <c:crossAx val="15922593"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1562,7 +1601,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1710,11 +1749,11 @@
         </c:ser>
         <c:gapWidth val="182"/>
         <c:overlap val="0"/>
-        <c:axId val="89237132"/>
-        <c:axId val="22801543"/>
+        <c:axId val="60194532"/>
+        <c:axId val="94871281"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89237132"/>
+        <c:axId val="60194532"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1785,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22801543"/>
+        <c:crossAx val="94871281"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1754,7 +1793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22801543"/>
+        <c:axId val="94871281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1793,7 +1832,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89237132"/>
+        <c:crossAx val="60194532"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1832,9 +1871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>159840</xdr:colOff>
+      <xdr:colOff>159480</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1843,7 +1882,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13159800" y="304920"/>
-        <a:ext cx="3197520" cy="2533320"/>
+        <a:ext cx="3197160" cy="2532960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1862,9 +1901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>342720</xdr:colOff>
+      <xdr:colOff>342360</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1873,7 +1912,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13167360" y="2905200"/>
-        <a:ext cx="5861520" cy="2714040"/>
+        <a:ext cx="5861160" cy="2713680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1892,9 +1931,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>342720</xdr:colOff>
+      <xdr:colOff>342360</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1903,7 +1942,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13167360" y="5718600"/>
-        <a:ext cx="5861520" cy="2714400"/>
+        <a:ext cx="5861160" cy="2714040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1922,9 +1961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>350280</xdr:colOff>
+      <xdr:colOff>349920</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1933,7 +1972,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13174920" y="8622000"/>
-        <a:ext cx="5861520" cy="2714040"/>
+        <a:ext cx="5861160" cy="2713680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1953,8 +1992,8 @@
   </sheetPr>
   <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G86" activeCellId="0" sqref="G86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4349,11 +4388,18 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>116</v>
+      </c>
       <c r="B87" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="3"/>
+      <c r="C87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="E87" s="4"/>
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
@@ -4363,13 +4409,20 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>117</v>
+      </c>
       <c r="B88" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="3"/>
+      <c r="D88" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="E88" s="4"/>
-      <c r="F88" s="5"/>
+      <c r="F88" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="G88" s="6"/>
       <c r="I88" s="0" t="n">
         <f aca="false">SUM(C88:H88)</f>
@@ -4377,13 +4430,20 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>118</v>
+      </c>
       <c r="B89" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D89" s="3"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="5"/>
+      <c r="F89" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="G89" s="6"/>
       <c r="I89" s="0" t="n">
         <f aca="false">SUM(C89:H89)</f>
@@ -4391,12 +4451,19 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>119</v>
+      </c>
       <c r="B90" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="4"/>
+      <c r="D90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F90" s="5"/>
       <c r="G90" s="6"/>
       <c r="I90" s="0" t="n">
@@ -4405,12 +4472,19 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>120</v>
+      </c>
       <c r="B91" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="C91" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D91" s="3"/>
-      <c r="E91" s="4"/>
+      <c r="E91" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
       <c r="I91" s="0" t="n">
@@ -4419,13 +4493,20 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>121</v>
+      </c>
       <c r="B92" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="5"/>
+      <c r="E92" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="G92" s="6"/>
       <c r="I92" s="0" t="n">
         <f aca="false">SUM(C92:H92)</f>
@@ -4433,6 +4514,9 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>122</v>
+      </c>
       <c r="B93" s="0" t="s">
         <v>43</v>
       </c>
@@ -4447,6 +4531,9 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>123</v>
+      </c>
       <c r="B94" s="0" t="s">
         <v>43</v>
       </c>
@@ -4461,6 +4548,9 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>123</v>
+      </c>
       <c r="B95" s="0" t="s">
         <v>43</v>
       </c>
@@ -4475,6 +4565,9 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="B96" s="0" t="s">
         <v>43</v>
       </c>
@@ -4489,6 +4582,9 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="B97" s="0" t="s">
         <v>43</v>
       </c>
@@ -4503,6 +4599,9 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>125</v>
+      </c>
       <c r="B98" s="0" t="s">
         <v>43</v>
       </c>
@@ -4517,6 +4616,9 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>125</v>
+      </c>
       <c r="B99" s="0" t="s">
         <v>43</v>
       </c>
@@ -4531,6 +4633,9 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>126</v>
+      </c>
       <c r="B100" s="0" t="s">
         <v>43</v>
       </c>
@@ -4545,6 +4650,9 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>126</v>
+      </c>
       <c r="B101" s="0" t="s">
         <v>43</v>
       </c>

--- a/WIP/.Repartition.xlsx
+++ b/WIP/.Repartition.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\Desktop\MtG\Proxys\HoF_EDH\WIP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F417E497-3FD7-488D-A397-3587BC10A5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,395 +27,392 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="127">
   <si>
-    <t xml:space="preserve">Nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blanc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bleu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rouge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Générique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catégorie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catégorie 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valenos, Main de la Destinée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pioche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maître de son destin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enchantement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apollyon, sinistre bienfaiteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Politique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariadne, l'Héroïne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attaque de caravane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ephémère</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hasard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caprices du destin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sir Cassius, fidèle de l'Empire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choix du destin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rituel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colbjorn, l'Allié</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret impérial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draknar, le Puissant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wincon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrella, la Rebelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harro, l'Omniscient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Faucheuse, tueur à gages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Lune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Maison-Dieu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Mort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Papesse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Roue de la Fortune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Tempérance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Récursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'Amoureux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Bateleur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Chariot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Diable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Hiérophante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Jugement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Mat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Monde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Pendu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Soleil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'Empereur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'Etoile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'Hermite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'Impératrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaclypse, le Magicien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rana Ishmaël</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shamane du clan Oeilclair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldats de l'Empire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soutien des compagnons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table de jeu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artefact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenter sa chance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas, ogre joueur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usurier malhonnête</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veles, le Seigneur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iga, divinité tourmentée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fléau de la corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hansel le parieur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pillards nordiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spectre de la prison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Théophilius, âme damnée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marchand Prospère</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espoir éternel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planeswalker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capuche de parieur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joyau du parieur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anneau de Kallas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anneau de concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anneau de sacrifice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anneau de vérité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appel de la victoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gantelet d'occultiste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carreau foudroyant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armure d'écailles du roi mort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grobben, chef de la Fosse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Vieille Dame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruines de la Tour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontière de la province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campement sauvage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campement sous les étoiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campement souterrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campement urbain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croisée des chemins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Champ des fées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portal magique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forteresse impériale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Égouts de la ville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donjon obscur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La colline sanglante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les Quais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temple rocheux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colline sacrée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eaux guérisseuses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passage interdit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gobelinville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etendues gelées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rivière tumultueuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camp nordique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maelstrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontière des terres désolées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Fosse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labyrinthe impossible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Île</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marais</t>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Blanc</t>
+  </si>
+  <si>
+    <t>Bleu</t>
+  </si>
+  <si>
+    <t>Noir</t>
+  </si>
+  <si>
+    <t>Rouge</t>
+  </si>
+  <si>
+    <t>Vert</t>
+  </si>
+  <si>
+    <t>Générique</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Catégorie</t>
+  </si>
+  <si>
+    <t>Catégorie 2</t>
+  </si>
+  <si>
+    <t>Valenos, Main de la Destinée</t>
+  </si>
+  <si>
+    <t>Créature</t>
+  </si>
+  <si>
+    <t>Regard</t>
+  </si>
+  <si>
+    <t>Pioche</t>
+  </si>
+  <si>
+    <t>Maître de son destin</t>
+  </si>
+  <si>
+    <t>Enchantement</t>
+  </si>
+  <si>
+    <t>Triche</t>
+  </si>
+  <si>
+    <t>Apollyon, sinistre bienfaiteur</t>
+  </si>
+  <si>
+    <t>Politique</t>
+  </si>
+  <si>
+    <t>Ariadne, l'Héroïne</t>
+  </si>
+  <si>
+    <t>Tuteur</t>
+  </si>
+  <si>
+    <t>Attaque de caravane</t>
+  </si>
+  <si>
+    <t>Ephémère</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Hasard</t>
+  </si>
+  <si>
+    <t>Caprices du destin</t>
+  </si>
+  <si>
+    <t>Sir Cassius, fidèle de l'Empire</t>
+  </si>
+  <si>
+    <t>Choix du destin</t>
+  </si>
+  <si>
+    <t>Rituel</t>
+  </si>
+  <si>
+    <t>Colbjorn, l'Allié</t>
+  </si>
+  <si>
+    <t>Décret impérial</t>
+  </si>
+  <si>
+    <t>Draknar, le Puissant</t>
+  </si>
+  <si>
+    <t>Wincon</t>
+  </si>
+  <si>
+    <t>Estrella, la Rebelle</t>
+  </si>
+  <si>
+    <t>Harro, l'Omniscient</t>
+  </si>
+  <si>
+    <t>La Faucheuse, tueur à gages</t>
+  </si>
+  <si>
+    <t>Ramp</t>
+  </si>
+  <si>
+    <t>La Force</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>La Justice</t>
+  </si>
+  <si>
+    <t>La Lune</t>
+  </si>
+  <si>
+    <t>La Maison-Dieu</t>
+  </si>
+  <si>
+    <t>Terrain</t>
+  </si>
+  <si>
+    <t>Vie</t>
+  </si>
+  <si>
+    <t>La Mort</t>
+  </si>
+  <si>
+    <t>La Papesse</t>
+  </si>
+  <si>
+    <t>La Roue de la Fortune</t>
+  </si>
+  <si>
+    <t>La Tempérance</t>
+  </si>
+  <si>
+    <t>Récursion</t>
+  </si>
+  <si>
+    <t>L'Amoureux</t>
+  </si>
+  <si>
+    <t>Protection</t>
+  </si>
+  <si>
+    <t>Le Bateleur</t>
+  </si>
+  <si>
+    <t>Le Chariot</t>
+  </si>
+  <si>
+    <t>Le Diable</t>
+  </si>
+  <si>
+    <t>Le Hiérophante</t>
+  </si>
+  <si>
+    <t>Le Jugement</t>
+  </si>
+  <si>
+    <t>Le Mat</t>
+  </si>
+  <si>
+    <t>Le Monde</t>
+  </si>
+  <si>
+    <t>Le Pendu</t>
+  </si>
+  <si>
+    <t>Le Soleil</t>
+  </si>
+  <si>
+    <t>L'Empereur</t>
+  </si>
+  <si>
+    <t>L'Etoile</t>
+  </si>
+  <si>
+    <t>L'Hermite</t>
+  </si>
+  <si>
+    <t>L'Impératrice</t>
+  </si>
+  <si>
+    <t>Malaclypse, le Magicien</t>
+  </si>
+  <si>
+    <t>Rana Ishmaël</t>
+  </si>
+  <si>
+    <t>Shamane du clan Oeilclair</t>
+  </si>
+  <si>
+    <t>Soldats de l'Empire</t>
+  </si>
+  <si>
+    <t>Soutien des compagnons</t>
+  </si>
+  <si>
+    <t>Table de jeu</t>
+  </si>
+  <si>
+    <t>Artefact</t>
+  </si>
+  <si>
+    <t>Tenter sa chance</t>
+  </si>
+  <si>
+    <t>Thomas, ogre joueur</t>
+  </si>
+  <si>
+    <t>Usurier malhonnête</t>
+  </si>
+  <si>
+    <t>Veles, le Seigneur</t>
+  </si>
+  <si>
+    <t>Iga, divinité tourmentée</t>
+  </si>
+  <si>
+    <t>Fléau de la corruption</t>
+  </si>
+  <si>
+    <t>Hansel le parieur</t>
+  </si>
+  <si>
+    <t>Pillards nordiques</t>
+  </si>
+  <si>
+    <t>Spectre de la prison</t>
+  </si>
+  <si>
+    <t>Théophilius, âme damnée</t>
+  </si>
+  <si>
+    <t>Marchand Prospère</t>
+  </si>
+  <si>
+    <t>Espoir éternel</t>
+  </si>
+  <si>
+    <t>Planeswalker</t>
+  </si>
+  <si>
+    <t>Capuche de parieur</t>
+  </si>
+  <si>
+    <t>Joyau du parieur</t>
+  </si>
+  <si>
+    <t>Anneau de Kallas</t>
+  </si>
+  <si>
+    <t>Anneau de concentration</t>
+  </si>
+  <si>
+    <t>Anneau de sacrifice</t>
+  </si>
+  <si>
+    <t>Anneau de vérité</t>
+  </si>
+  <si>
+    <t>Appel de la victoire</t>
+  </si>
+  <si>
+    <t>Gantelet d'occultiste</t>
+  </si>
+  <si>
+    <t>Carreau foudroyant</t>
+  </si>
+  <si>
+    <t>Armure d'écailles du roi mort</t>
+  </si>
+  <si>
+    <t>Grobben, chef de la Fosse</t>
+  </si>
+  <si>
+    <t>La Vieille Dame</t>
+  </si>
+  <si>
+    <t>Ruines de la Tour</t>
+  </si>
+  <si>
+    <t>Frontière de la province</t>
+  </si>
+  <si>
+    <t>Campement sauvage</t>
+  </si>
+  <si>
+    <t>Campement sous les étoiles</t>
+  </si>
+  <si>
+    <t>Campement souterrain</t>
+  </si>
+  <si>
+    <t>Campement urbain</t>
+  </si>
+  <si>
+    <t>Croisée des chemins</t>
+  </si>
+  <si>
+    <t>Champ des fées</t>
+  </si>
+  <si>
+    <t>Portal magique</t>
+  </si>
+  <si>
+    <t>Forteresse impériale</t>
+  </si>
+  <si>
+    <t>Égouts de la ville</t>
+  </si>
+  <si>
+    <t>Donjon obscur</t>
+  </si>
+  <si>
+    <t>La colline sanglante</t>
+  </si>
+  <si>
+    <t>Les Quais</t>
+  </si>
+  <si>
+    <t>Temple rocheux</t>
+  </si>
+  <si>
+    <t>Colline sacrée</t>
+  </si>
+  <si>
+    <t>Eaux guérisseuses</t>
+  </si>
+  <si>
+    <t>Passage interdit</t>
+  </si>
+  <si>
+    <t>Gobelinville</t>
+  </si>
+  <si>
+    <t>Etendues gelées</t>
+  </si>
+  <si>
+    <t>Rivière tumultueuse</t>
+  </si>
+  <si>
+    <t>Camp nordique</t>
+  </si>
+  <si>
+    <t>Maelstrom</t>
+  </si>
+  <si>
+    <t>Frontière des terres désolées</t>
+  </si>
+  <si>
+    <t>La Fosse</t>
+  </si>
+  <si>
+    <t>Labyrinthe impossible</t>
+  </si>
+  <si>
+    <t>Montagne</t>
+  </si>
+  <si>
+    <t>Île</t>
+  </si>
+  <si>
+    <t>Plaine</t>
+  </si>
+  <si>
+    <t>Marais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -419,51 +421,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -511,7 +474,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -519,69 +482,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -640,15 +557,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -657,7 +592,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="fr-FR" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -665,7 +600,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -686,6 +621,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -693,114 +629,149 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="a6a6a6"/>
+              <a:srgbClr val="A6A6A6"/>
             </a:solidFill>
             <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffe699"/>
+                <a:srgbClr val="FFE699"/>
               </a:solidFill>
               <a:ln w="19080">
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3E2E-4D84-B705-0FDEDBEA4420}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="2e75b6"/>
+                <a:srgbClr val="2E75B6"/>
               </a:solidFill>
               <a:ln w="19080">
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3E2E-4D84-B705-0FDEDBEA4420}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="404040"/>
               </a:solidFill>
               <a:ln w="19080">
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3E2E-4D84-B705-0FDEDBEA4420}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff0000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="19080">
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3E2E-4D84-B705-0FDEDBEA4420}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00b050"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="19080">
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3E2E-4D84-B705-0FDEDBEA4420}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a6a6a6"/>
+                <a:srgbClr val="A6A6A6"/>
               </a:solidFill>
               <a:ln w="19080">
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3E2E-4D84-B705-0FDEDBEA4420}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="404040"/>
                       </a:solidFill>
                       <a:latin typeface="Calibri"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -809,23 +780,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3E2E-4D84-B705-0FDEDBEA4420}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="404040"/>
                       </a:solidFill>
                       <a:latin typeface="Calibri"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -834,64 +811,69 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3E2E-4D84-B705-0FDEDBEA4420}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9C659C23-E74A-4564-A33C-8A16434921E3}" type="VALUE">
+                      <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFFFF"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALEUR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:separator>; </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3E2E-4D84-B705-0FDEDBEA4420}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="404040"/>
                       </a:solidFill>
                       <a:latin typeface="Calibri"/>
                     </a:defRPr>
                   </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:p>
-                    <a:fld id="{9C659C23-E74A-4564-A33C-8A16434921E3}" type="VALUE">
-                      <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                        <a:solidFill>
-                          <a:srgbClr val="ffffff"/>
-                        </a:solidFill>
-                        <a:latin typeface="Calibri"/>
-                      </a:rPr>
-                      <a:t>21</a:t>
-                    </a:fld>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="404040"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -900,23 +882,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3E2E-4D84-B705-0FDEDBEA4420}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="404040"/>
                       </a:solidFill>
                       <a:latin typeface="Calibri"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -925,23 +913,29 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-3E2E-4D84-B705-0FDEDBEA4420}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:spPr/>
               <c:txPr>
                 <a:bodyPr wrap="square"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                       <a:solidFill>
                         <a:srgbClr val="404040"/>
                       </a:solidFill>
                       <a:latin typeface="Calibri"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -950,20 +944,33 @@
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-3E2E-4D84-B705-0FDEDBEA4420}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -972,8 +979,12 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1002,7 +1013,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3E2E-4D84-B705-0FDEDBEA4420}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -1014,25 +1039,33 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1041,7 +1074,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="fr-FR" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1049,7 +1082,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1070,6 +1103,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -1079,7 +1113,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
+              <a:srgbClr val="5B9BD5"/>
             </a:solidFill>
             <a:ln w="0">
               <a:noFill/>
@@ -1087,18 +1121,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1107,8 +1149,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1210,9 +1253,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91BE-413A-A945-D1E433D65180}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:overlap val="0"/>
         <c:axId val="13813023"/>
         <c:axId val="48217006"/>
       </c:barChart>
@@ -1222,7 +1277,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1230,7 +1285,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1240,13 +1295,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="48217006"/>
@@ -1262,12 +1318,12 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1287,13 +1343,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="13813023"/>
@@ -1309,25 +1366,33 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1336,7 +1401,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1344,7 +1409,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1365,6 +1430,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1374,7 +1440,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
+              <a:srgbClr val="5B9BD5"/>
             </a:solidFill>
             <a:ln w="0">
               <a:noFill/>
@@ -1382,18 +1448,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1402,8 +1476,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1411,9 +1486,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Feuil1!$T$33:$T$42</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1445,8 +1521,8 @@
                 <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1455,7 +1531,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -1487,7 +1563,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6875-48E8-BB90-4E115CCFC0D1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
         <c:axId val="15922593"/>
@@ -1507,7 +1596,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1517,13 +1606,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="45973033"/>
@@ -1544,7 +1634,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1564,13 +1654,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="15922593"/>
@@ -1586,25 +1677,33 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1613,7 +1712,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="fr-FR" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1621,7 +1720,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1642,6 +1741,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -1651,7 +1751,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
+              <a:srgbClr val="5B9BD5"/>
             </a:solidFill>
             <a:ln w="0">
               <a:noFill/>
@@ -1659,18 +1759,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1679,8 +1787,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1746,9 +1855,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D34C-4AAB-B25D-749B1CBF0D51}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:overlap val="0"/>
         <c:axId val="60194532"/>
         <c:axId val="94871281"/>
       </c:barChart>
@@ -1758,7 +1879,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1766,7 +1887,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1776,13 +1897,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94871281"/>
@@ -1798,12 +1920,12 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1823,13 +1945,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="60194532"/>
@@ -1845,23 +1968,29 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1875,14 +2004,20 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13159800" y="304920"/>
-        <a:ext cx="3197160" cy="2532960"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1905,14 +2040,20 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Graphique 4"/>
+        <xdr:cNvPr id="3" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13167360" y="2905200"/>
-        <a:ext cx="5861160" cy="2713680"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1935,14 +2076,20 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 6"/>
+        <xdr:cNvPr id="4" name="Graphique 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13167360" y="5718600"/>
-        <a:ext cx="5861160" cy="2714040"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1965,14 +2112,20 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 7"/>
+        <xdr:cNvPr id="5" name="Graphique 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13174920" y="8622000"/>
-        <a:ext cx="5861160" cy="2713680"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1985,28 +2138,320 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.22"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="8" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2041,482 +2486,482 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="n">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <f aca="false">SUM(C2:H2)</f>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I33" si="0">SUM(C2:H2)</f>
         <v>4</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <f aca="false">SUM(C3:H3)</f>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <f aca="false">SUM(C4:H4)</f>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <f aca="false">SUM(C5:H5)</f>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="I6" s="0" t="n">
-        <f aca="false">SUM(C6:H6)</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="0" t="s">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <f aca="false">SUM(C7:H7)</f>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5" t="n">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <f aca="false">SUM(C8:H8)</f>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <f aca="false">SUM(C9:H9)</f>
-        <v>2</v>
-      </c>
-      <c r="J9" s="0" t="s">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <f aca="false">SUM(C10:H10)</f>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <f aca="false">SUM(C11:H11)</f>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="5">
         <v>2</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <f aca="false">SUM(C12:H12)</f>
+      <c r="I12">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="5">
         <v>1</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <f aca="false">SUM(C13:H13)</f>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="3">
         <v>2</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <f aca="false">SUM(C14:H14)</f>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <f aca="false">SUM(C15:H15)</f>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <f aca="false">SUM(C16:H16)</f>
-        <v>2</v>
-      </c>
-      <c r="J16" s="0" t="s">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="0" t="n">
-        <f aca="false">SUM(C17:H17)</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="0" t="s">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
         <v>24</v>
       </c>
-      <c r="T17" s="0" t="s">
+      <c r="T17" t="s">
         <v>14</v>
       </c>
-      <c r="U17" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T17)+COUNTIF(K:K,T17)</f>
+      <c r="U17">
+        <f t="shared" ref="U17:U32" si="1">COUNTIF(J:J,T17)+COUNTIF(K:K,T17)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <f aca="false">SUM(C18:H18)</f>
-        <v>2</v>
-      </c>
-      <c r="J18" s="0" t="s">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
         <v>33</v>
       </c>
-      <c r="T18" s="0" t="s">
+      <c r="T18" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T18)+COUNTIF(K:K,T18)</f>
+      <c r="U18">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="2"/>
@@ -2524,1153 +2969,1153 @@
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
-      <c r="I19" s="0" t="n">
-        <f aca="false">SUM(C19:H19)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="0" t="s">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T19)+COUNTIF(K:K,T19)</f>
+      <c r="U19">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <f aca="false">SUM(C20:H20)</f>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="0" t="s">
+      <c r="T20" t="s">
         <v>13</v>
       </c>
-      <c r="U20" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T20)+COUNTIF(K:K,T20)</f>
+      <c r="U20">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <f aca="false">SUM(C21:H21)</f>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" t="s">
         <v>13</v>
       </c>
-      <c r="T21" s="0" t="s">
+      <c r="T21" t="s">
         <v>24</v>
       </c>
-      <c r="U21" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T21)+COUNTIF(K:K,T21)</f>
+      <c r="U21">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="5">
         <v>1</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <f aca="false">SUM(C22:H22)</f>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="K22" t="s">
         <v>25</v>
       </c>
-      <c r="T22" s="0" t="s">
+      <c r="T22" t="s">
         <v>21</v>
       </c>
-      <c r="U22" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T22)+COUNTIF(K:K,T22)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
-      <c r="I23" s="0" t="n">
-        <f aca="false">SUM(C23:H23)</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="0" t="s">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
         <v>13</v>
       </c>
-      <c r="T23" s="0" t="s">
+      <c r="T23" t="s">
         <v>49</v>
       </c>
-      <c r="U23" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T23)+COUNTIF(K:K,T23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="U23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="5">
         <v>1</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <f aca="false">SUM(C24:H24)</f>
-        <v>2</v>
-      </c>
-      <c r="J24" s="0" t="s">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" t="s">
         <v>14</v>
       </c>
-      <c r="T24" s="0" t="s">
+      <c r="T24" t="s">
         <v>51</v>
       </c>
-      <c r="U24" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T24)+COUNTIF(K:K,T24)</f>
+      <c r="U24">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <f aca="false">SUM(C25:H25)</f>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" t="s">
         <v>39</v>
       </c>
-      <c r="T25" s="0" t="s">
+      <c r="T25" t="s">
         <v>25</v>
       </c>
-      <c r="U25" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T25)+COUNTIF(K:K,T25)</f>
+      <c r="U25">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="5">
         <v>1</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="I26" s="0" t="n">
-        <f aca="false">SUM(C26:H26)</f>
-        <v>1</v>
-      </c>
-      <c r="J26" s="0" t="s">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="K26" t="s">
         <v>25</v>
       </c>
-      <c r="T26" s="0" t="s">
+      <c r="T26" t="s">
         <v>33</v>
       </c>
-      <c r="U26" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T26)+COUNTIF(K:K,T26)</f>
+      <c r="U26">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5" t="n">
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
         <v>1</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="I27" s="0" t="n">
-        <f aca="false">SUM(C27:H27)</f>
-        <v>2</v>
-      </c>
-      <c r="J27" s="0" t="s">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
         <v>25</v>
       </c>
-      <c r="T27" s="0" t="s">
+      <c r="T27" t="s">
         <v>19</v>
       </c>
-      <c r="U27" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T27)+COUNTIF(K:K,T27)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <f aca="false">SUM(C28:H28)</f>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" t="s">
         <v>24</v>
       </c>
-      <c r="T28" s="0" t="s">
+      <c r="T28" t="s">
         <v>39</v>
       </c>
-      <c r="U28" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T28)+COUNTIF(K:K,T28)</f>
+      <c r="U28">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="4">
         <v>1</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <f aca="false">SUM(C29:H29)</f>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" t="s">
         <v>25</v>
       </c>
-      <c r="T29" s="0" t="s">
+      <c r="T29" t="s">
         <v>17</v>
       </c>
-      <c r="U29" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T29)+COUNTIF(K:K,T29)</f>
+      <c r="U29">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="5">
         <v>1</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <f aca="false">SUM(C30:H30)</f>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" t="s">
         <v>14</v>
       </c>
-      <c r="U30" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T30)+COUNTIF(K:K,T30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="3" t="n">
+      <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
-      <c r="I31" s="0" t="n">
-        <f aca="false">SUM(C31:H31)</f>
-        <v>1</v>
-      </c>
-      <c r="J31" s="0" t="s">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
         <v>33</v>
       </c>
-      <c r="U31" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T31)+COUNTIF(K:K,T31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="4">
         <v>1</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <f aca="false">SUM(C32:H32)</f>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" t="s">
         <v>24</v>
       </c>
-      <c r="U32" s="0" t="n">
-        <f aca="false">COUNTIF(J:J,T32)+COUNTIF(K:K,T32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="n">
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
-      <c r="I33" s="0" t="n">
-        <f aca="false">SUM(C33:H33)</f>
-        <v>2</v>
-      </c>
-      <c r="J33" s="0" t="s">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="0" t="s">
+      <c r="K33" t="s">
         <v>14</v>
       </c>
-      <c r="T33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" s="0" t="n">
-        <f aca="false">COUNTIF(I:I,T33)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ref="U33:U42" si="2">COUNTIF(I:I,T33)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <f aca="false">SUM(C34:H34)</f>
-        <v>2</v>
-      </c>
-      <c r="J34" s="0" t="s">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I65" si="3">SUM(C34:H34)</f>
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
         <v>25</v>
       </c>
-      <c r="T34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U34" s="0" t="n">
-        <f aca="false">COUNTIF(I:I,T34)</f>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="3">
         <v>2</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <f aca="false">SUM(C35:H35)</f>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="J35" t="s">
         <v>14</v>
       </c>
-      <c r="T35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="U35" s="0" t="n">
-        <f aca="false">COUNTIF(I:I,T35)</f>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4" t="n">
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
         <v>1</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
-      <c r="I36" s="0" t="n">
-        <f aca="false">SUM(C36:H36)</f>
-        <v>2</v>
-      </c>
-      <c r="J36" s="0" t="s">
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
         <v>13</v>
       </c>
-      <c r="T36" s="0" t="n">
+      <c r="T36">
         <v>3</v>
       </c>
-      <c r="U36" s="0" t="n">
-        <f aca="false">COUNTIF(I:I,T36)</f>
+      <c r="U36">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <f aca="false">SUM(C37:H37)</f>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" t="s">
         <v>37</v>
       </c>
-      <c r="T37" s="0" t="n">
+      <c r="T37">
         <v>4</v>
       </c>
-      <c r="U37" s="0" t="n">
-        <f aca="false">COUNTIF(I:I,T37)</f>
+      <c r="U37">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="3" t="n">
+      <c r="D38" s="3">
         <v>1</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="5">
         <v>1</v>
       </c>
       <c r="G38" s="6"/>
-      <c r="I38" s="0" t="n">
-        <f aca="false">SUM(C38:H38)</f>
-        <v>2</v>
-      </c>
-      <c r="J38" s="0" t="s">
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
         <v>51</v>
       </c>
-      <c r="T38" s="0" t="n">
+      <c r="T38">
         <v>5</v>
       </c>
-      <c r="U38" s="0" t="n">
-        <f aca="false">COUNTIF(I:I,T38)</f>
+      <c r="U38">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="5">
         <v>1</v>
       </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <f aca="false">SUM(C39:H39)</f>
-        <v>2</v>
-      </c>
-      <c r="J39" s="0" t="s">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
         <v>37</v>
       </c>
-      <c r="T39" s="0" t="n">
+      <c r="T39">
         <v>6</v>
       </c>
-      <c r="U39" s="0" t="n">
-        <f aca="false">COUNTIF(I:I,T39)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="U39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <f aca="false">SUM(C40:H40)</f>
-        <v>2</v>
-      </c>
-      <c r="J40" s="0" t="s">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
         <v>33</v>
       </c>
-      <c r="T40" s="0" t="n">
+      <c r="T40">
         <v>7</v>
       </c>
-      <c r="U40" s="0" t="n">
-        <f aca="false">COUNTIF(I:I,T40)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="U40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <f aca="false">SUM(C41:H41)</f>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J41" s="0" t="s">
+      <c r="J41" t="s">
         <v>51</v>
       </c>
-      <c r="T41" s="0" t="n">
+      <c r="T41">
         <v>8</v>
       </c>
-      <c r="U41" s="0" t="n">
-        <f aca="false">COUNTIF(I:I,T41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="U41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="2">
         <v>2</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <f aca="false">SUM(C42:H42)</f>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="J42" t="s">
         <v>51</v>
       </c>
-      <c r="T42" s="0" t="n">
+      <c r="T42">
         <v>9</v>
       </c>
-      <c r="U42" s="0" t="n">
-        <f aca="false">COUNTIF(I:I,T42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="U42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>71</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="5" t="n">
+      <c r="F43" s="5">
         <v>1</v>
       </c>
       <c r="G43" s="6"/>
-      <c r="H43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <f aca="false">SUM(C43:H43)</f>
-        <v>2</v>
-      </c>
-      <c r="J43" s="0" t="s">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J43" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="0" t="s">
+      <c r="K43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="3" t="n">
+      <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="5" t="n">
+      <c r="F44" s="5">
         <v>1</v>
       </c>
       <c r="G44" s="6"/>
-      <c r="H44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <f aca="false">SUM(C44:H44)</f>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="J44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="5" t="n">
+      <c r="F45" s="5">
         <v>1</v>
       </c>
       <c r="G45" s="6"/>
-      <c r="H45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <f aca="false">SUM(C45:H45)</f>
-        <v>2</v>
-      </c>
-      <c r="J45" s="0" t="s">
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="4" t="n">
+      <c r="E46" s="4">
         <v>1</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
-      <c r="I46" s="0" t="n">
-        <f aca="false">SUM(C46:H46)</f>
-        <v>1</v>
-      </c>
-      <c r="J46" s="0" t="s">
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="0" t="s">
+      <c r="K46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="4" t="n">
+      <c r="E47" s="4">
         <v>3</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
-      <c r="I47" s="0" t="n">
-        <f aca="false">SUM(C47:H47)</f>
+      <c r="I47">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J47" s="0" t="s">
+      <c r="J47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="5" t="n">
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
         <v>2</v>
       </c>
       <c r="G48" s="6"/>
-      <c r="H48" s="0" t="n">
+      <c r="H48">
         <v>4</v>
       </c>
-      <c r="I48" s="0" t="n">
-        <f aca="false">SUM(C48:H48)</f>
+      <c r="I48">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="J48" s="0" t="s">
+      <c r="J48" t="s">
         <v>33</v>
       </c>
-      <c r="K48" s="0" t="s">
+      <c r="K48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>29</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="4" t="n">
+      <c r="E49" s="4">
         <v>2</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="0" t="n">
+      <c r="H49">
         <v>4</v>
       </c>
-      <c r="I49" s="0" t="n">
-        <f aca="false">SUM(C49:H49)</f>
+      <c r="I49">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="J49" s="0" t="s">
+      <c r="J49" t="s">
         <v>25</v>
       </c>
-      <c r="T49" s="0" t="s">
+      <c r="T49" t="s">
         <v>12</v>
       </c>
-      <c r="U49" s="0" t="n">
-        <f aca="false">COUNTIF(B:B,T49)</f>
+      <c r="U49">
+        <f t="shared" ref="U49:U55" si="4">COUNTIF(B:B,T49)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="5" t="n">
+      <c r="F50" s="5">
         <v>1</v>
       </c>
       <c r="G50" s="6"/>
-      <c r="H50" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <f aca="false">SUM(C50:H50)</f>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J50" s="0" t="s">
+      <c r="J50" t="s">
         <v>37</v>
       </c>
-      <c r="K50" s="0" t="s">
+      <c r="K50" t="s">
         <v>25</v>
       </c>
-      <c r="T50" s="0" t="s">
+      <c r="T50" t="s">
         <v>29</v>
       </c>
-      <c r="U50" s="0" t="n">
-        <f aca="false">COUNTIF(B:B,T50)</f>
+      <c r="U50">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="2">
         <v>1</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="4" t="n">
+      <c r="E51" s="4">
         <v>1</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <f aca="false">SUM(C51:H51)</f>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J51" s="0" t="s">
+      <c r="J51" t="s">
         <v>37</v>
       </c>
-      <c r="T51" s="0" t="s">
+      <c r="T51" t="s">
         <v>23</v>
       </c>
-      <c r="U51" s="0" t="n">
-        <f aca="false">COUNTIF(B:B,T51)</f>
+      <c r="U51">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="4" t="n">
+      <c r="E52" s="4">
         <v>2</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="0" t="n">
+      <c r="H52">
         <v>3</v>
       </c>
-      <c r="I52" s="0" t="n">
-        <f aca="false">SUM(C52:H52)</f>
+      <c r="I52">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J52" s="0" t="s">
+      <c r="J52" t="s">
         <v>44</v>
       </c>
-      <c r="K52" s="0" t="s">
+      <c r="K52" t="s">
         <v>25</v>
       </c>
-      <c r="T52" s="0" t="s">
+      <c r="T52" t="s">
         <v>43</v>
       </c>
-      <c r="U52" s="0" t="n">
-        <f aca="false">COUNTIF(B:B,T52)</f>
+      <c r="U52">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="4" t="n">
+      <c r="E53" s="4">
         <v>1</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <f aca="false">SUM(C53:H53)</f>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J53" s="0" t="s">
+      <c r="J53" t="s">
         <v>17</v>
       </c>
-      <c r="T53" s="0" t="s">
+      <c r="T53" t="s">
         <v>16</v>
       </c>
-      <c r="U53" s="0" t="n">
-        <f aca="false">COUNTIF(B:B,T53)</f>
+      <c r="U53">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="2">
         <v>1</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" s="0" t="n">
-        <f aca="false">SUM(C54:H54)</f>
-        <v>2</v>
-      </c>
-      <c r="J54" s="0" t="s">
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J54" t="s">
         <v>25</v>
       </c>
-      <c r="T54" s="0" t="s">
+      <c r="T54" t="s">
         <v>71</v>
       </c>
-      <c r="U54" s="0" t="n">
-        <f aca="false">COUNTIF(B:B,T54)</f>
+      <c r="U54">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3" t="n">
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3">
         <v>1</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <f aca="false">SUM(C55:H55)</f>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J55" s="0" t="s">
+      <c r="J55" t="s">
         <v>17</v>
       </c>
-      <c r="T55" s="0" t="s">
+      <c r="T55" t="s">
         <v>84</v>
       </c>
-      <c r="U55" s="0" t="n">
-        <f aca="false">COUNTIF(B:B,T55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="U55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>71</v>
       </c>
       <c r="C56" s="2"/>
@@ -3678,25 +4123,25 @@
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" s="0" t="n">
-        <f aca="false">SUM(C56:H56)</f>
-        <v>2</v>
-      </c>
-      <c r="J56" s="0" t="s">
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J56" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="0" t="s">
+      <c r="K56" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>71</v>
       </c>
       <c r="C57" s="2"/>
@@ -3704,25 +4149,25 @@
       <c r="E57" s="4"/>
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <f aca="false">SUM(C57:H57)</f>
-        <v>2</v>
-      </c>
-      <c r="J57" s="0" t="s">
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J57" t="s">
         <v>17</v>
       </c>
-      <c r="K57" s="0" t="s">
+      <c r="K57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="2"/>
@@ -3730,22 +4175,22 @@
       <c r="E58" s="4"/>
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <f aca="false">SUM(C58:H58)</f>
-        <v>2</v>
-      </c>
-      <c r="J58" s="0" t="s">
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>88</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>71</v>
       </c>
       <c r="C59" s="2"/>
@@ -3753,22 +4198,22 @@
       <c r="E59" s="4"/>
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <f aca="false">SUM(C59:H59)</f>
-        <v>2</v>
-      </c>
-      <c r="J59" s="0" t="s">
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>71</v>
       </c>
       <c r="C60" s="2"/>
@@ -3776,22 +4221,22 @@
       <c r="E60" s="4"/>
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" s="0" t="n">
-        <f aca="false">SUM(C60:H60)</f>
-        <v>2</v>
-      </c>
-      <c r="J60" s="0" t="s">
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J60" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>90</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="2"/>
@@ -3799,22 +4244,22 @@
       <c r="E61" s="4"/>
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" s="0" t="n">
-        <f aca="false">SUM(C61:H61)</f>
-        <v>2</v>
-      </c>
-      <c r="J61" s="0" t="s">
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="2"/>
@@ -3822,22 +4267,22 @@
       <c r="E62" s="4"/>
       <c r="F62" s="5"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" s="0" t="n">
-        <f aca="false">SUM(C62:H62)</f>
-        <v>1</v>
-      </c>
-      <c r="J62" s="0" t="s">
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>71</v>
       </c>
       <c r="C63" s="2"/>
@@ -3845,22 +4290,22 @@
       <c r="E63" s="4"/>
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" s="0" t="n">
-        <f aca="false">SUM(C63:H63)</f>
-        <v>2</v>
-      </c>
-      <c r="J63" s="0" t="s">
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>93</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>71</v>
       </c>
       <c r="C64" s="2"/>
@@ -3868,22 +4313,22 @@
       <c r="E64" s="4"/>
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <f aca="false">SUM(C64:H64)</f>
-        <v>1</v>
-      </c>
-      <c r="J64" s="0" t="s">
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>71</v>
       </c>
       <c r="C65" s="2"/>
@@ -3891,633 +4336,633 @@
       <c r="E65" s="4"/>
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" s="0" t="n">
-        <f aca="false">SUM(C65:H65)</f>
-        <v>2</v>
-      </c>
-      <c r="J65" s="0" t="s">
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="5" t="n">
+      <c r="F66" s="5">
         <v>2</v>
       </c>
       <c r="G66" s="6"/>
-      <c r="H66" s="0" t="n">
+      <c r="H66">
         <v>3</v>
       </c>
-      <c r="I66" s="0" t="n">
-        <f aca="false">SUM(C66:H66)</f>
+      <c r="I66">
+        <f t="shared" ref="I66:I97" si="5">SUM(C66:H66)</f>
         <v>5</v>
       </c>
-      <c r="J66" s="0" t="s">
+      <c r="J66" t="s">
         <v>25</v>
       </c>
-      <c r="K66" s="0" t="s">
+      <c r="K66" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>96</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C67" s="2">
         <v>1</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" s="0" t="n">
-        <f aca="false">SUM(C67:H67)</f>
-        <v>2</v>
-      </c>
-      <c r="J67" s="0" t="s">
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J67" t="s">
         <v>25</v>
       </c>
-      <c r="K67" s="0" t="s">
+      <c r="K67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" s="5" t="n">
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
         <v>0</v>
       </c>
       <c r="G68" s="6"/>
-      <c r="I68" s="0" t="n">
-        <f aca="false">SUM(C68:H68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="I68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" s="0" t="n">
-        <f aca="false">SUM(C69:H69)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>43</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="5" t="n">
+      <c r="F70" s="5">
         <v>0</v>
       </c>
       <c r="G70" s="6"/>
-      <c r="I70" s="0" t="n">
-        <f aca="false">SUM(C70:H70)</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="0" t="s">
+      <c r="I70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>43</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="3" t="n">
+      <c r="D71" s="3">
         <v>0</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
-      <c r="I71" s="0" t="n">
-        <f aca="false">SUM(C71:H71)</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="0" t="s">
+      <c r="I71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
         <v>25</v>
       </c>
-      <c r="K71" s="0" t="s">
+      <c r="K71" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>43</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="4" t="n">
+      <c r="E72" s="4">
         <v>0</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="6"/>
-      <c r="I72" s="0" t="n">
-        <f aca="false">SUM(C72:H72)</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="0" t="s">
+      <c r="I72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
         <v>25</v>
       </c>
-      <c r="K72" s="0" t="s">
+      <c r="K72" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="2" t="n">
+      <c r="C73" s="2">
         <v>0</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="4"/>
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
-      <c r="I73" s="0" t="n">
-        <f aca="false">SUM(C73:H73)</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="0" t="s">
+      <c r="I73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
         <v>25</v>
       </c>
-      <c r="K73" s="0" t="s">
+      <c r="K73" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="5" t="n">
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="5">
         <v>0</v>
       </c>
       <c r="G74" s="6"/>
-      <c r="I74" s="0" t="n">
-        <f aca="false">SUM(C74:H74)</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="0" t="s">
+      <c r="I74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>104</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" s="3" t="n">
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3">
         <v>0</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
-      <c r="I75" s="0" t="n">
-        <f aca="false">SUM(C75:H75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="I75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>43</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="D76" s="3" t="n">
+      <c r="D76" s="3">
         <v>0</v>
       </c>
       <c r="E76" s="4"/>
-      <c r="F76" s="5" t="n">
+      <c r="F76" s="5">
         <v>0</v>
       </c>
       <c r="G76" s="6"/>
-      <c r="I76" s="0" t="n">
-        <f aca="false">SUM(C76:H76)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="I76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>43</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C77" s="2">
         <v>0</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="5" t="n">
+      <c r="F77" s="5">
         <v>0</v>
       </c>
       <c r="G77" s="6"/>
-      <c r="I77" s="0" t="n">
-        <f aca="false">SUM(C77:H77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="I77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>107</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>43</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" s="4" t="n">
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
         <v>0</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
-      <c r="I78" s="0" t="n">
-        <f aca="false">SUM(C78:H78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="I78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>43</v>
       </c>
-      <c r="C79" s="2" t="n">
+      <c r="C79" s="2">
         <v>0</v>
       </c>
       <c r="D79" s="3"/>
-      <c r="E79" s="4" t="n">
+      <c r="E79" s="4">
         <v>0</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
-      <c r="I79" s="0" t="n">
-        <f aca="false">SUM(C79:H79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="I79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>43</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" s="5" t="n">
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="5">
         <v>0</v>
       </c>
       <c r="G80" s="6"/>
-      <c r="I80" s="0" t="n">
-        <f aca="false">SUM(C80:H80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="I80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>43</v>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" s="3" t="n">
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3">
         <v>0</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
-      <c r="I81" s="0" t="n">
-        <f aca="false">SUM(C81:H81)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="I81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>43</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="3" t="n">
+      <c r="D82" s="3">
         <v>0</v>
       </c>
       <c r="E82" s="4"/>
-      <c r="F82" s="5" t="n">
+      <c r="F82" s="5">
         <v>0</v>
       </c>
       <c r="G82" s="6"/>
-      <c r="I82" s="0" t="n">
-        <f aca="false">SUM(C82:H82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="I82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>43</v>
       </c>
-      <c r="C83" s="2" t="n">
+      <c r="C83" s="2">
         <v>0</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="5" t="n">
+      <c r="F83" s="5">
         <v>0</v>
       </c>
       <c r="G83" s="6"/>
-      <c r="I83" s="0" t="n">
-        <f aca="false">SUM(C83:H83)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="I83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>43</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" s="4" t="n">
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
         <v>0</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="6"/>
-      <c r="I84" s="0" t="n">
-        <f aca="false">SUM(C84:H84)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="I84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>114</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>43</v>
       </c>
-      <c r="C85" s="2" t="n">
+      <c r="C85" s="2">
         <v>0</v>
       </c>
       <c r="D85" s="3"/>
-      <c r="E85" s="4" t="n">
+      <c r="E85" s="4">
         <v>0</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
-      <c r="I85" s="0" t="n">
-        <f aca="false">SUM(C85:H85)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="I85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>115</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>43</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" s="5" t="n">
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="5">
         <v>0</v>
       </c>
       <c r="G86" s="6"/>
-      <c r="I86" s="0" t="n">
-        <f aca="false">SUM(C86:H86)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="I86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>116</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>43</v>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" s="3" t="n">
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3">
         <v>0</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
-      <c r="I87" s="0" t="n">
-        <f aca="false">SUM(C87:H87)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="I87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>117</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>43</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="3" t="n">
+      <c r="D88" s="3">
         <v>0</v>
       </c>
       <c r="E88" s="4"/>
-      <c r="F88" s="5" t="n">
+      <c r="F88" s="5">
         <v>0</v>
       </c>
       <c r="G88" s="6"/>
-      <c r="I88" s="0" t="n">
-        <f aca="false">SUM(C88:H88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>118</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>43</v>
       </c>
-      <c r="C89" s="2" t="n">
+      <c r="C89" s="2">
         <v>0</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="5" t="n">
+      <c r="F89" s="5">
         <v>0</v>
       </c>
       <c r="G89" s="6"/>
-      <c r="I89" s="0" t="n">
-        <f aca="false">SUM(C89:H89)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="I89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>119</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" s="4" t="n">
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
         <v>0</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="6"/>
-      <c r="I90" s="0" t="n">
-        <f aca="false">SUM(C90:H90)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="I90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>120</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>43</v>
       </c>
-      <c r="C91" s="2" t="n">
+      <c r="C91" s="2">
         <v>0</v>
       </c>
       <c r="D91" s="3"/>
-      <c r="E91" s="4" t="n">
+      <c r="E91" s="4">
         <v>0</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
-      <c r="I91" s="0" t="n">
-        <f aca="false">SUM(C91:H91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="I91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>121</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>43</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" s="5" t="n">
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="5">
         <v>0</v>
       </c>
       <c r="G92" s="6"/>
-      <c r="I92" s="0" t="n">
-        <f aca="false">SUM(C92:H92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="I92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>122</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>43</v>
       </c>
       <c r="C93" s="2"/>
@@ -4525,16 +4970,16 @@
       <c r="E93" s="4"/>
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
-      <c r="I93" s="0" t="n">
-        <f aca="false">SUM(C93:H93)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="I93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>123</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>43</v>
       </c>
       <c r="C94" s="2"/>
@@ -4542,16 +4987,16 @@
       <c r="E94" s="4"/>
       <c r="F94" s="5"/>
       <c r="G94" s="6"/>
-      <c r="I94" s="0" t="n">
-        <f aca="false">SUM(C94:H94)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="I94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>123</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>43</v>
       </c>
       <c r="C95" s="2"/>
@@ -4559,16 +5004,16 @@
       <c r="E95" s="4"/>
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
-      <c r="I95" s="0" t="n">
-        <f aca="false">SUM(C95:H95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="I95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>124</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>43</v>
       </c>
       <c r="C96" s="2"/>
@@ -4576,16 +5021,16 @@
       <c r="E96" s="4"/>
       <c r="F96" s="5"/>
       <c r="G96" s="6"/>
-      <c r="I96" s="0" t="n">
-        <f aca="false">SUM(C96:H96)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="I96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>124</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>43</v>
       </c>
       <c r="C97" s="2"/>
@@ -4593,16 +5038,16 @@
       <c r="E97" s="4"/>
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
-      <c r="I97" s="0" t="n">
-        <f aca="false">SUM(C97:H97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="I97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>43</v>
       </c>
       <c r="C98" s="2"/>
@@ -4610,16 +5055,16 @@
       <c r="E98" s="4"/>
       <c r="F98" s="5"/>
       <c r="G98" s="6"/>
-      <c r="I98" s="0" t="n">
-        <f aca="false">SUM(C98:H98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="I98">
+        <f t="shared" ref="I98:I129" si="6">SUM(C98:H98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>125</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>43</v>
       </c>
       <c r="C99" s="2"/>
@@ -4627,16 +5072,16 @@
       <c r="E99" s="4"/>
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
-      <c r="I99" s="0" t="n">
-        <f aca="false">SUM(C99:H99)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="I99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>43</v>
       </c>
       <c r="C100" s="2"/>
@@ -4644,16 +5089,16 @@
       <c r="E100" s="4"/>
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
-      <c r="I100" s="0" t="n">
-        <f aca="false">SUM(C100:H100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="I100">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>126</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" t="s">
         <v>43</v>
       </c>
       <c r="C101" s="2"/>
@@ -4661,848 +5106,1076 @@
       <c r="E101" s="4"/>
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
-      <c r="I101" s="0" t="n">
-        <f aca="false">SUM(C101:H101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="2" t="n">
-        <f aca="false">SUM(C2:C101)</f>
+      <c r="I101">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C102" s="2">
+        <f t="shared" ref="C102:H102" si="7">SUM(C2:C101)</f>
         <v>18</v>
       </c>
-      <c r="D102" s="3" t="n">
-        <f aca="false">SUM(D2:D101)</f>
+      <c r="D102" s="3">
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="E102" s="4" t="n">
-        <f aca="false">SUM(E2:E101)</f>
+      <c r="E102" s="4">
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="F102" s="5" t="n">
-        <f aca="false">SUM(F2:F101)</f>
+      <c r="F102" s="5">
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="G102" s="6" t="n">
-        <f aca="false">SUM(G2:G101)</f>
-        <v>0</v>
-      </c>
-      <c r="H102" s="0" t="n">
-        <f aca="false">SUM(H2:H101)</f>
+      <c r="G102" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="I102" s="0" t="n">
-        <f aca="false">SUM(I2:I101)/(100-U52)</f>
-        <v>2.75384615384615</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I102">
+        <f>SUM(I2:I101)/(100-U52)</f>
+        <v>2.7538461538461538</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="4"/>
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="4"/>
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="4"/>
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
-    </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I105">
+        <f>SUM(C105:H105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="4"/>
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
-    </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I106">
+        <f t="shared" ref="I106:I169" si="8">SUM(C106:H106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="4"/>
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
-    </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I107">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="4"/>
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
-    </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="4"/>
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
-    </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="4"/>
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
-    </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="4"/>
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
-    </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="4"/>
       <c r="F112" s="5"/>
       <c r="G112" s="6"/>
-    </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="4"/>
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
-    </row>
-    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I113">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="4"/>
       <c r="F114" s="5"/>
       <c r="G114" s="6"/>
-    </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="4"/>
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
-    </row>
-    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I115">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="4"/>
       <c r="F116" s="5"/>
       <c r="G116" s="6"/>
-    </row>
-    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="4"/>
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
-    </row>
-    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="4"/>
       <c r="F118" s="5"/>
       <c r="G118" s="6"/>
-    </row>
-    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="4"/>
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
-    </row>
-    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="4"/>
       <c r="F120" s="5"/>
       <c r="G120" s="6"/>
-    </row>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="4"/>
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
-    </row>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I121">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="4"/>
       <c r="F122" s="5"/>
       <c r="G122" s="6"/>
-    </row>
-    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="4"/>
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
-    </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="4"/>
       <c r="F124" s="5"/>
       <c r="G124" s="6"/>
-    </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="4"/>
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
-    </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I125">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="4"/>
       <c r="F126" s="5"/>
       <c r="G126" s="6"/>
-    </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I126">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="4"/>
       <c r="F127" s="5"/>
       <c r="G127" s="6"/>
-    </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I127">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="4"/>
       <c r="F128" s="5"/>
       <c r="G128" s="6"/>
-    </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I128">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="4"/>
       <c r="F129" s="5"/>
       <c r="G129" s="6"/>
-    </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I129">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="4"/>
       <c r="F130" s="5"/>
       <c r="G130" s="6"/>
-    </row>
-    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I130">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="4"/>
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
-    </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I131">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="4"/>
       <c r="F132" s="5"/>
       <c r="G132" s="6"/>
-    </row>
-    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I132">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="4"/>
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
-    </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I133">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="4"/>
       <c r="F134" s="5"/>
       <c r="G134" s="6"/>
-    </row>
-    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I134">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="4"/>
       <c r="F135" s="5"/>
       <c r="G135" s="6"/>
-    </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="4"/>
       <c r="F136" s="5"/>
       <c r="G136" s="6"/>
-    </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I136">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="4"/>
       <c r="F137" s="5"/>
       <c r="G137" s="6"/>
-    </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="4"/>
       <c r="F138" s="5"/>
       <c r="G138" s="6"/>
-    </row>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I138">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="4"/>
       <c r="F139" s="5"/>
       <c r="G139" s="6"/>
-    </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="4"/>
       <c r="F140" s="5"/>
       <c r="G140" s="6"/>
-    </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="4"/>
       <c r="F141" s="5"/>
       <c r="G141" s="6"/>
-    </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I141">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="4"/>
       <c r="F142" s="5"/>
       <c r="G142" s="6"/>
-    </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I142">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="4"/>
       <c r="F143" s="5"/>
       <c r="G143" s="6"/>
-    </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I143">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="4"/>
       <c r="F144" s="5"/>
       <c r="G144" s="6"/>
-    </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I144">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="4"/>
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
-    </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I145">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="4"/>
       <c r="F146" s="5"/>
       <c r="G146" s="6"/>
-    </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I146">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="4"/>
       <c r="F147" s="5"/>
       <c r="G147" s="6"/>
-    </row>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="4"/>
       <c r="F148" s="5"/>
       <c r="G148" s="6"/>
-    </row>
-    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I148">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="4"/>
       <c r="F149" s="5"/>
       <c r="G149" s="6"/>
-    </row>
-    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I149">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="4"/>
       <c r="F150" s="5"/>
       <c r="G150" s="6"/>
-    </row>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I150">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="4"/>
       <c r="F151" s="5"/>
       <c r="G151" s="6"/>
-    </row>
-    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I151">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="4"/>
       <c r="F152" s="5"/>
       <c r="G152" s="6"/>
-    </row>
-    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I152">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="4"/>
       <c r="F153" s="5"/>
       <c r="G153" s="6"/>
-    </row>
-    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I153">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="4"/>
       <c r="F154" s="5"/>
       <c r="G154" s="6"/>
-    </row>
-    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I154">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="4"/>
       <c r="F155" s="5"/>
       <c r="G155" s="6"/>
-    </row>
-    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I155">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="4"/>
       <c r="F156" s="5"/>
       <c r="G156" s="6"/>
-    </row>
-    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="4"/>
       <c r="F157" s="5"/>
       <c r="G157" s="6"/>
-    </row>
-    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I157">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="4"/>
       <c r="F158" s="5"/>
       <c r="G158" s="6"/>
-    </row>
-    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I158">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="4"/>
       <c r="F159" s="5"/>
       <c r="G159" s="6"/>
-    </row>
-    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I159">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="4"/>
       <c r="F160" s="5"/>
       <c r="G160" s="6"/>
-    </row>
-    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I160">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="4"/>
       <c r="F161" s="5"/>
       <c r="G161" s="6"/>
-    </row>
-    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
       <c r="E162" s="4"/>
       <c r="F162" s="5"/>
       <c r="G162" s="6"/>
-      <c r="I162" s="0" t="n">
-        <f aca="false">SUM(C162:H162)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
       <c r="E163" s="4"/>
       <c r="F163" s="5"/>
       <c r="G163" s="6"/>
-      <c r="I163" s="0" t="n">
-        <f aca="false">SUM(C163:H163)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I163">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
       <c r="E164" s="4"/>
       <c r="F164" s="5"/>
       <c r="G164" s="6"/>
-      <c r="I164" s="0" t="n">
-        <f aca="false">SUM(C164:H164)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I164">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
       <c r="E165" s="4"/>
       <c r="F165" s="5"/>
       <c r="G165" s="6"/>
-      <c r="I165" s="0" t="n">
-        <f aca="false">SUM(C165:H165)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I165">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
       <c r="E166" s="4"/>
       <c r="F166" s="5"/>
       <c r="G166" s="6"/>
-      <c r="I166" s="0" t="n">
-        <f aca="false">SUM(C166:H166)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I166">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
       <c r="E167" s="4"/>
       <c r="F167" s="5"/>
       <c r="G167" s="6"/>
-      <c r="I167" s="0" t="n">
-        <f aca="false">SUM(C167:H167)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I167">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
       <c r="E168" s="4"/>
       <c r="F168" s="5"/>
       <c r="G168" s="6"/>
-      <c r="I168" s="0" t="n">
-        <f aca="false">SUM(C168:H168)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I168">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
       <c r="E169" s="4"/>
       <c r="F169" s="5"/>
       <c r="G169" s="6"/>
-      <c r="I169" s="0" t="n">
-        <f aca="false">SUM(C169:H169)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I169">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
       <c r="E170" s="4"/>
       <c r="F170" s="5"/>
       <c r="G170" s="6"/>
-      <c r="I170" s="0" t="n">
-        <f aca="false">SUM(C170:H170)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I170">
+        <f t="shared" ref="I170:I191" si="9">SUM(C170:H170)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
       <c r="E171" s="4"/>
       <c r="F171" s="5"/>
       <c r="G171" s="6"/>
-      <c r="I171" s="0" t="n">
-        <f aca="false">SUM(C171:H171)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I171">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
       <c r="E172" s="4"/>
       <c r="F172" s="5"/>
       <c r="G172" s="6"/>
-      <c r="I172" s="0" t="n">
-        <f aca="false">SUM(C172:H172)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I172">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
       <c r="E173" s="4"/>
       <c r="F173" s="5"/>
       <c r="G173" s="6"/>
-      <c r="I173" s="0" t="n">
-        <f aca="false">SUM(C173:H173)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I173">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
       <c r="E174" s="4"/>
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
-      <c r="I174" s="0" t="n">
-        <f aca="false">SUM(C174:H174)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I174">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
       <c r="E175" s="4"/>
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
-      <c r="I175" s="0" t="n">
-        <f aca="false">SUM(C175:H175)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I175">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
       <c r="E176" s="4"/>
       <c r="F176" s="5"/>
       <c r="G176" s="6"/>
-      <c r="I176" s="0" t="n">
-        <f aca="false">SUM(C176:H176)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I176">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
       <c r="E177" s="4"/>
       <c r="F177" s="5"/>
       <c r="G177" s="6"/>
-      <c r="I177" s="0" t="n">
-        <f aca="false">SUM(C177:H177)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I177">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
       <c r="E178" s="4"/>
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
-      <c r="I178" s="0" t="n">
-        <f aca="false">SUM(C178:H178)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I178">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
       <c r="E179" s="4"/>
       <c r="F179" s="5"/>
       <c r="G179" s="6"/>
-      <c r="I179" s="0" t="n">
-        <f aca="false">SUM(C179:H179)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I179">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
       <c r="E180" s="4"/>
       <c r="F180" s="5"/>
       <c r="G180" s="6"/>
-      <c r="I180" s="0" t="n">
-        <f aca="false">SUM(C180:H180)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I180">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
       <c r="E181" s="4"/>
       <c r="F181" s="5"/>
       <c r="G181" s="6"/>
-      <c r="I181" s="0" t="n">
-        <f aca="false">SUM(C181:H181)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I181">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
       <c r="E182" s="4"/>
       <c r="F182" s="5"/>
       <c r="G182" s="6"/>
-      <c r="I182" s="0" t="n">
-        <f aca="false">SUM(C182:H182)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I182">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
       <c r="E183" s="4"/>
       <c r="F183" s="5"/>
       <c r="G183" s="6"/>
-      <c r="I183" s="0" t="n">
-        <f aca="false">SUM(C183:H183)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I183">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
       <c r="E184" s="4"/>
       <c r="F184" s="5"/>
       <c r="G184" s="6"/>
-      <c r="I184" s="0" t="n">
-        <f aca="false">SUM(C184:H184)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I184">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C185" s="2"/>
       <c r="D185" s="3"/>
       <c r="E185" s="4"/>
       <c r="F185" s="5"/>
       <c r="G185" s="6"/>
-      <c r="I185" s="0" t="n">
-        <f aca="false">SUM(C185:H185)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I185">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
       <c r="E186" s="4"/>
       <c r="F186" s="5"/>
       <c r="G186" s="6"/>
-      <c r="I186" s="0" t="n">
-        <f aca="false">SUM(C186:H186)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I186">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
       <c r="E187" s="4"/>
       <c r="F187" s="5"/>
       <c r="G187" s="6"/>
-      <c r="I187" s="0" t="n">
-        <f aca="false">SUM(C187:H187)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I187">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
       <c r="E188" s="4"/>
       <c r="F188" s="5"/>
       <c r="G188" s="6"/>
-      <c r="I188" s="0" t="n">
-        <f aca="false">SUM(C188:H188)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I188">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
       <c r="E189" s="4"/>
       <c r="F189" s="5"/>
       <c r="G189" s="6"/>
-      <c r="I189" s="0" t="n">
-        <f aca="false">SUM(C189:H189)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I189">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
       <c r="E190" s="4"/>
       <c r="F190" s="5"/>
       <c r="G190" s="6"/>
-      <c r="I190" s="0" t="n">
-        <f aca="false">SUM(C190:H190)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I190">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
       <c r="E191" s="4"/>
       <c r="F191" s="5"/>
       <c r="G191" s="6"/>
-      <c r="I191" s="0" t="n">
-        <f aca="false">SUM(C191:H191)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I191">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
       <c r="E192" s="4"/>
       <c r="F192" s="5"/>
       <c r="G192" s="6"/>
     </row>
-    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
       <c r="E193" s="4"/>
       <c r="F193" s="5"/>
       <c r="G193" s="6"/>
     </row>
-    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
       <c r="E194" s="4"/>
       <c r="F194" s="5"/>
       <c r="G194" s="6"/>
     </row>
-    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
       <c r="E195" s="4"/>
       <c r="F195" s="5"/>
       <c r="G195" s="6"/>
     </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
       <c r="E196" s="4"/>
       <c r="F196" s="5"/>
       <c r="G196" s="6"/>
     </row>
-    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
       <c r="E197" s="4"/>
       <c r="F197" s="5"/>
       <c r="G197" s="6"/>
     </row>
-    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
       <c r="E198" s="4"/>
       <c r="F198" s="5"/>
       <c r="G198" s="6"/>
     </row>
-    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
       <c r="E199" s="4"/>
       <c r="F199" s="5"/>
       <c r="G199" s="6"/>
     </row>
-    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
       <c r="E200" s="4"/>
       <c r="F200" s="5"/>
       <c r="G200" s="6"/>
     </row>
-    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
       <c r="E201" s="4"/>
@@ -5510,13 +6183,8 @@
       <c r="G201" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/WIP/.Repartition.xlsx
+++ b/WIP/.Repartition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\Desktop\MtG\Proxys\HoF_EDH\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F417E497-3FD7-488D-A397-3587BC10A5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4603ED3A-8624-4A4B-9B0B-EB7D34F77412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="129">
   <si>
     <t>Nom</t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>Marais</t>
+  </si>
+  <si>
+    <t>Grimalkin</t>
+  </si>
+  <si>
+    <t>Rituel sacrificiel</t>
   </si>
 </sst>
 </file>
@@ -782,6 +788,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-3E2E-4D84-B705-0FDEDBEA4420}"/>
                 </c:ext>
@@ -813,6 +820,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-3E2E-4D84-B705-0FDEDBEA4420}"/>
                 </c:ext>
@@ -884,6 +892,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3E2E-4D84-B705-0FDEDBEA4420}"/>
                 </c:ext>
@@ -915,6 +924,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-3E2E-4D84-B705-0FDEDBEA4420}"/>
                 </c:ext>
@@ -946,6 +956,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-3E2E-4D84-B705-0FDEDBEA4420}"/>
                 </c:ext>
@@ -1212,10 +1223,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -1245,7 +1256,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
@@ -1531,13 +1542,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>122</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20</c:v>
@@ -1546,7 +1557,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -2438,7 +2449,7 @@
   <dimension ref="A1:U201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2922,7 +2933,7 @@
       </c>
       <c r="U17">
         <f t="shared" ref="U17:U32" si="1">COUNTIF(J:J,T17)+COUNTIF(K:K,T17)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -2954,7 +2965,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -3271,7 +3282,7 @@
       </c>
       <c r="U28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -3431,7 +3442,7 @@
       </c>
       <c r="U33">
         <f t="shared" ref="U33:U42" si="2">COUNTIF(I:I,T33)</f>
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -3495,7 +3506,7 @@
       </c>
       <c r="U35">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -3589,7 +3600,7 @@
       </c>
       <c r="U38">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
@@ -5026,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>124</v>
       </c>
@@ -5043,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>125</v>
       </c>
@@ -5056,11 +5067,11 @@
       <c r="F98" s="5"/>
       <c r="G98" s="6"/>
       <c r="I98">
-        <f t="shared" ref="I98:I129" si="6">SUM(C98:H98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I98:I101" si="6">SUM(C98:H98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>125</v>
       </c>
@@ -5077,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -5094,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -5111,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C102" s="2">
         <f t="shared" ref="C102:H102" si="7">SUM(C2:C101)</f>
         <v>18</v>
@@ -5141,43 +5152,70 @@
         <v>2.7538461538461538</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="4"/>
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="4"/>
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C105" s="2"/>
-      <c r="D105" s="3"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1</v>
+      </c>
       <c r="E105" s="4"/>
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
       <c r="I105">
         <f>SUM(C105:H105)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J105" t="s">
+        <v>39</v>
+      </c>
+      <c r="K105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>128</v>
+      </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="4"/>
+      <c r="E106" s="4">
+        <v>3</v>
+      </c>
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
+      <c r="H106">
+        <v>2</v>
+      </c>
       <c r="I106">
         <f t="shared" ref="I106:I169" si="8">SUM(C106:H106)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="4"/>
@@ -5188,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="4"/>
@@ -5199,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="4"/>
@@ -5210,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="4"/>
@@ -5221,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="4"/>
@@ -5232,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="4"/>

--- a/WIP/.Repartition.xlsx
+++ b/WIP/.Repartition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\Desktop\MtG\Proxys\HoF_EDH\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4603ED3A-8624-4A4B-9B0B-EB7D34F77412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A04C421-9E95-4EBD-8C83-CD0DFCE38D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
     <t>Grimalkin</t>
   </si>
   <si>
-    <t>Rituel sacrificiel</t>
+    <t>Rituel d'abandon</t>
   </si>
 </sst>
 </file>
@@ -2449,7 +2449,7 @@
   <dimension ref="A1:U201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
